--- a/results/results1.xlsx
+++ b/results/results1.xlsx
@@ -760,13 +760,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-7.4</v>
+        <v>0</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>-2.3014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -802,13 +802,13 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-7.4</v>
+        <v>0</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29">
-        <v>-2.3014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -816,13 +816,13 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-7.4</v>
+        <v>0</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30">
-        <v>-2.3014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -830,13 +830,13 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-7.4</v>
+        <v>0</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31">
-        <v>-2.3014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -858,13 +858,13 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-7.4</v>
+        <v>0</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33">
-        <v>-2.3014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -928,13 +928,13 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-7.4</v>
+        <v>0</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38">
-        <v>-2.3014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -942,13 +942,13 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-3.497773810386633</v>
+        <v>0</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39">
-        <v>-1.087807655030243</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -956,13 +956,13 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-7.4</v>
+        <v>0</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40">
-        <v>-2.3014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -970,13 +970,13 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-7.4</v>
+        <v>0</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41">
-        <v>-2.3014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1012,13 +1012,13 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>-7.4</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>-1.6872</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1026,13 +1026,13 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-7.4</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>-1.6872</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1040,13 +1040,13 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>-7.4</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>-1.6872</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1054,13 +1054,13 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>-7.4</v>
       </c>
       <c r="C47">
         <v>0</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>-1.6872</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1068,13 +1068,13 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>-7.4</v>
       </c>
       <c r="C48">
         <v>0</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>-1.6872</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1082,13 +1082,13 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>-7.4</v>
       </c>
       <c r="C49">
         <v>0</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>-1.6872</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1096,13 +1096,13 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>-7.4</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>-1.6872</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1110,13 +1110,13 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>-7.4</v>
       </c>
       <c r="C51">
         <v>0</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>-1.6872</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1124,13 +1124,13 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>-7.4</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>-1.6872</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1138,13 +1138,13 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>-7.4</v>
       </c>
       <c r="C53">
         <v>0</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>-1.6872</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1152,13 +1152,13 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>-7.4</v>
       </c>
       <c r="C54">
         <v>0</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>-1.6872</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1166,13 +1166,13 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>-7.4</v>
       </c>
       <c r="C55">
         <v>0</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>-1.6872</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1180,13 +1180,13 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>-7.4</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>-1.6872</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1194,13 +1194,13 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>-7.4</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>-1.6872</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1208,13 +1208,13 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>-7.4</v>
       </c>
       <c r="C58">
         <v>0</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>-1.6872</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1222,13 +1222,13 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>-7.4</v>
       </c>
       <c r="C59">
         <v>0</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>-1.6872</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1236,13 +1236,13 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.5346750068660661</v>
+        <v>0</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
       <c r="D60">
-        <v>0.02833777536390151</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1250,13 +1250,13 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>-7.4</v>
       </c>
       <c r="C61">
         <v>0</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>-1.6872</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1264,13 +1264,13 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-7.4</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>-1.6872</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1278,13 +1278,13 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>-7.4</v>
       </c>
       <c r="C63">
         <v>0</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>-1.6872</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1292,13 +1292,13 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.6807475928148964</v>
+        <v>0</v>
       </c>
       <c r="C64">
         <v>0</v>
       </c>
       <c r="D64">
-        <v>0.03607962241918952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1306,13 +1306,13 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.6304091404498575</v>
+        <v>0</v>
       </c>
       <c r="C65">
         <v>0</v>
       </c>
       <c r="D65">
-        <v>0.03341168444384245</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1348,13 +1348,13 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>5.46458956992424</v>
+        <v>1.574411714583704</v>
       </c>
       <c r="C68">
         <v>0</v>
       </c>
       <c r="D68">
-        <v>0.2896232472059848</v>
+        <v>0.08344382087293631</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1558,13 +1558,13 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6.841291933598328</v>
+        <v>7.4</v>
       </c>
       <c r="C83">
         <v>0</v>
       </c>
       <c r="D83">
-        <v>0.2736516773439331</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1572,13 +1572,13 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6.225613477661454</v>
+        <v>7.4</v>
       </c>
       <c r="C84">
         <v>0</v>
       </c>
       <c r="D84">
-        <v>0.2490245391064582</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1586,13 +1586,13 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>5.665342679340128</v>
+        <v>7.4</v>
       </c>
       <c r="C85">
         <v>0</v>
       </c>
       <c r="D85">
-        <v>0.2266137071736051</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1600,13 +1600,13 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>5.155493155737823</v>
+        <v>7.4</v>
       </c>
       <c r="C86">
         <v>0</v>
       </c>
       <c r="D86">
-        <v>0.2062197262295129</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1614,13 +1614,13 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>4.691527270854401</v>
+        <v>7.4</v>
       </c>
       <c r="C87">
         <v>0</v>
       </c>
       <c r="D87">
-        <v>0.187661090834176</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1628,13 +1628,13 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>4.269315750846054</v>
+        <v>7.4</v>
       </c>
       <c r="C88">
         <v>0</v>
       </c>
       <c r="D88">
-        <v>0.1707726300338422</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1642,13 +1642,13 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>3.885100933688655</v>
+        <v>7.4</v>
       </c>
       <c r="C89">
         <v>0</v>
       </c>
       <c r="D89">
-        <v>0.1554040373475462</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1656,13 +1656,13 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>3.535463326168198</v>
+        <v>7.4</v>
       </c>
       <c r="C90">
         <v>0</v>
       </c>
       <c r="D90">
-        <v>0.1414185330467279</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1670,13 +1670,13 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>3.21729117055726</v>
+        <v>7.4</v>
       </c>
       <c r="C91">
         <v>0</v>
       </c>
       <c r="D91">
-        <v>0.1286916468222904</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1684,13 +1684,13 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>2.927752750122373</v>
+        <v>6.645863539778624</v>
       </c>
       <c r="C92">
         <v>0</v>
       </c>
       <c r="D92">
-        <v>0.1171101100048949</v>
+        <v>0.2658345415911449</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1698,13 +1698,13 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>2.66427118698256</v>
+        <v>6.306590996232226</v>
       </c>
       <c r="C93">
         <v>0</v>
       </c>
       <c r="D93">
-        <v>0.1065708474793024</v>
+        <v>0.2522636398492891</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1712,13 +1712,13 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>2.424501508021386</v>
+        <v>5.880749503636777</v>
       </c>
       <c r="C94">
         <v>0</v>
       </c>
       <c r="D94">
-        <v>0.09698006032085545</v>
+        <v>0.2352299801454711</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1726,13 +1726,13 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>2.206309774740085</v>
+        <v>6.059450905764875</v>
       </c>
       <c r="C95">
         <v>0</v>
       </c>
       <c r="D95">
-        <v>0.08825239098960339</v>
+        <v>0.242378036230595</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1740,13 +1740,13 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>2.007754091308527</v>
+        <v>5.178467491071885</v>
       </c>
       <c r="C96">
         <v>0</v>
       </c>
       <c r="D96">
-        <v>0.08031016365234109</v>
+        <v>0.2071386996428754</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1754,13 +1754,13 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>1.827067321786679</v>
+        <v>4.131448286000936</v>
       </c>
       <c r="C97">
         <v>0</v>
       </c>
       <c r="D97">
-        <v>0.07308269287146715</v>
+        <v>0.1652579314400374</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1768,13 +1768,13 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>1.662641362700512</v>
+        <v>5.01625912159817</v>
       </c>
       <c r="C98">
         <v>0</v>
       </c>
       <c r="D98">
-        <v>0.06650565450802048</v>
+        <v>0.2006503648639268</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1782,13 +1782,13 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>1.513012830999216</v>
+        <v>5.812478184860751</v>
       </c>
       <c r="C99">
         <v>0</v>
       </c>
       <c r="D99">
-        <v>0.06052051323996864</v>
+        <v>0.23249912739443</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1796,13 +1796,13 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>1.376850040017089</v>
+        <v>4.504750920494622</v>
       </c>
       <c r="C100">
         <v>0</v>
       </c>
       <c r="D100">
-        <v>0.05507400160068358</v>
+        <v>0.1801900368197849</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1810,13 +1810,13 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>1.252941147526883</v>
+        <v>3.491244218094778</v>
       </c>
       <c r="C101">
         <v>0</v>
       </c>
       <c r="D101">
-        <v>0.05011764590107532</v>
+        <v>0.1396497687237911</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1824,13 +1824,13 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>1.140183370402852</v>
+        <v>2.705762517285173</v>
       </c>
       <c r="C102">
         <v>0</v>
       </c>
       <c r="D102">
-        <v>0.04560733481611408</v>
+        <v>0.1082305006914069</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1852,13 +1852,13 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.9463070505616855</v>
+        <v>1.868838045608676</v>
       </c>
       <c r="C104">
         <v>0</v>
       </c>
       <c r="D104">
-        <v>0.03785228202246742</v>
+        <v>0.07475352182434705</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1866,13 +1866,13 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.8611446471170012</v>
+        <v>1.448375312295944</v>
       </c>
       <c r="C105">
         <v>0</v>
       </c>
       <c r="D105">
-        <v>0.03444578588468005</v>
+        <v>0.05793501249183777</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1880,13 +1880,13 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.7836463892117251</v>
+        <v>1.122510883271922</v>
       </c>
       <c r="C106">
         <v>0</v>
       </c>
       <c r="D106">
-        <v>0.03134585556846901</v>
+        <v>0.04490043533087686</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1894,13 +1894,13 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.7131225461140644</v>
+        <v>0.8699614474003496</v>
       </c>
       <c r="C107">
         <v>0</v>
       </c>
       <c r="D107">
-        <v>0.02852490184456258</v>
+        <v>0.03479845789601398</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -1908,13 +1908,13 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.648945459045315</v>
+        <v>0.674232144419729</v>
       </c>
       <c r="C108">
         <v>0</v>
       </c>
       <c r="D108">
-        <v>0.0259578183618126</v>
+        <v>0.02696928577678916</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -1922,13 +1922,13 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.5905439550472096</v>
+        <v>0.522539229671896</v>
       </c>
       <c r="C109">
         <v>0</v>
       </c>
       <c r="D109">
-        <v>0.02362175820188838</v>
+        <v>0.02090156918687584</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1936,13 +1936,13 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.5373982635703243</v>
+        <v>0</v>
       </c>
       <c r="C110">
         <v>0</v>
       </c>
       <c r="D110">
-        <v>0.0730861638455641</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -1950,13 +1950,13 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.4890353905414457</v>
+        <v>0</v>
       </c>
       <c r="C111">
         <v>0</v>
       </c>
       <c r="D111">
-        <v>0.06650881311363663</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -1964,13 +1964,13 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.4450249087392635</v>
+        <v>0</v>
       </c>
       <c r="C112">
         <v>0</v>
       </c>
       <c r="D112">
-        <v>0.06052338758853984</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2442,7 +2442,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F95"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2470,10 +2470,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>2014003759</v>
+        <v>2016003348</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2485,15 +2485,15 @@
         <v>7.4</v>
       </c>
       <c r="F2">
-        <v>47.78510939566242</v>
+        <v>19.18485471824406</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>2014003759</v>
+        <v>2016003348</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2502,18 +2502,18 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F3">
-        <v>46.38359424414727</v>
+        <v>17.78333956672891</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>2014003759</v>
+        <v>2016003348</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2522,18 +2522,18 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F4">
-        <v>46.38359424414727</v>
+        <v>16.38182441521376</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>2014003759</v>
+        <v>2016003348</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2545,15 +2545,15 @@
         <v>7.4</v>
       </c>
       <c r="F5">
-        <v>46.38359424414727</v>
+        <v>14.9803092636986</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="B6">
-        <v>2014003759</v>
+        <v>2016003348</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2565,15 +2565,15 @@
         <v>7.4</v>
       </c>
       <c r="F6">
-        <v>44.98207909263212</v>
+        <v>13.57879411218345</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B7">
-        <v>2014003759</v>
+        <v>2016003348</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -2585,15 +2585,15 @@
         <v>7.4</v>
       </c>
       <c r="F7">
-        <v>43.58056394111697</v>
+        <v>12.1772789606683</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="B8">
-        <v>2014003759</v>
+        <v>2016003348</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2602,18 +2602,18 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F8">
-        <v>42.17904878960182</v>
+        <v>10.77576380915315</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B9">
-        <v>2014003759</v>
+        <v>2016003348</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -2625,15 +2625,15 @@
         <v>7.4</v>
       </c>
       <c r="F9">
-        <v>42.17904878960182</v>
+        <v>9.374248657637995</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="B10">
-        <v>2014003759</v>
+        <v>2016003348</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2642,18 +2642,18 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F10">
-        <v>40.77753363808667</v>
+        <v>7.972733506122844</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B11">
-        <v>2014003759</v>
+        <v>2016003348</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -2662,18 +2662,18 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F11">
-        <v>40.77753363808667</v>
+        <v>6.571218354607693</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="B12">
-        <v>2014003759</v>
+        <v>2016003348</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -2682,18 +2682,18 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F12">
-        <v>40.77753363808667</v>
+        <v>5.169703203092541</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="B13">
-        <v>2014003759</v>
+        <v>2016003348</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -2702,18 +2702,18 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F13">
-        <v>40.77753363808667</v>
+        <v>3.76818805157739</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="B14">
-        <v>2014003759</v>
+        <v>2016003348</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2725,15 +2725,15 @@
         <v>7.4</v>
       </c>
       <c r="F14">
-        <v>40.77753363808667</v>
+        <v>2.366672900062238</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="B15">
-        <v>2014003759</v>
+        <v>2016003348</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -2742,18 +2742,18 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>3.497773810386633</v>
+        <v>7.4</v>
       </c>
       <c r="F15">
-        <v>39.37601848657152</v>
+        <v>0.965157748547087</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="B16">
-        <v>2014003759</v>
+        <v>2016003348</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2765,15 +2765,15 @@
         <v>7.4</v>
       </c>
       <c r="F16">
-        <v>38.71356132551345</v>
+        <v>-0.4363574029680644</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="B17">
-        <v>2014003759</v>
+        <v>2016003348</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -2785,15 +2785,15 @@
         <v>7.4</v>
       </c>
       <c r="F17">
-        <v>37.3120461739983</v>
+        <v>-1.837872554483216</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="B18">
-        <v>2014003759</v>
+        <v>2016003348</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -2805,15 +2805,15 @@
         <v>7.4</v>
       </c>
       <c r="F18">
-        <v>35.91053102248315</v>
+        <v>-3.239387705998367</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="B19">
-        <v>2014003759</v>
+        <v>2016003348</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2825,15 +2825,15 @@
         <v>7.4</v>
       </c>
       <c r="F19">
-        <v>34.509015870968</v>
+        <v>-4.640902857513518</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>2014003759</v>
+        <v>2016003348</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -2845,15 +2845,15 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>33.10750071945285</v>
+        <v>-6.04241800902867</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B21">
-        <v>2014003759</v>
+        <v>2016003348</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -2862,18 +2862,18 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F21">
-        <v>33.10750071945285</v>
+        <v>-6.04241800902867</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="B22">
-        <v>2014003759</v>
+        <v>2016003348</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -2882,18 +2882,18 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F22">
-        <v>33.10750071945285</v>
+        <v>-7.443933160543821</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="B23">
-        <v>2014003759</v>
+        <v>2016003348</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -2902,18 +2902,18 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F23">
-        <v>33.10750071945285</v>
+        <v>-8.845448312058974</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="B24">
-        <v>2014003759</v>
+        <v>2016003348</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -2925,15 +2925,15 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>33.10750071945285</v>
+        <v>-10.24696346357413</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="B25">
-        <v>2014003759</v>
+        <v>2016003348</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -2945,495 +2945,495 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>33.10750071945285</v>
+        <v>-10.24696346357413</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="B26">
-        <v>2014003759</v>
+        <v>2016003348</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>3.890670955574277</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>33.10750071945285</v>
+        <v>-10.24696346357413</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="B27">
-        <v>2014003759</v>
+        <v>2016003348</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>3.973996433636435</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>33.10750071945285</v>
+        <v>-9.676331723423232</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="B28">
-        <v>2014003759</v>
+        <v>2016003348</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>1.574411714583704</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>33.10750071945285</v>
+        <v>-9.093478913156554</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="B29">
-        <v>2014003759</v>
+        <v>2016003348</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>6.531634200126426</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>33.10750071945285</v>
+        <v>-8.862565195017611</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="B30">
-        <v>2014003759</v>
+        <v>2016003348</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>5.421752492139301</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>33.10750071945285</v>
+        <v>-7.904592178999069</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="B31">
-        <v>2014003759</v>
+        <v>2016003348</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>5.653206280046618</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>33.10750071945285</v>
+        <v>-7.109401813485305</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="B32">
-        <v>2014003759</v>
+        <v>2016003348</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>6.784804300477762</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>33.10750071945285</v>
+        <v>-6.280264892411801</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="B33">
-        <v>2014003759</v>
+        <v>2016003348</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>5.886894342800716</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>33.10750071945285</v>
+        <v>-5.285160261675062</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="B34">
-        <v>2014003759</v>
+        <v>2016003348</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>33.10750071945285</v>
+        <v>-4.421749091397624</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="B35">
-        <v>2014003759</v>
+        <v>2016003348</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>6.973704335500432</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>33.10750071945285</v>
+        <v>-3.336415758064291</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="B36">
-        <v>2014003759</v>
+        <v>2016003348</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36">
-        <v>0.5346750068660661</v>
+        <v>4.921837183160116</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>33.10750071945285</v>
+        <v>-2.313605788857561</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="B37">
-        <v>2014003759</v>
+        <v>2016003348</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>5.99909471149501</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>33.18591972045987</v>
+        <v>-1.59173633532741</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="B38">
-        <v>2014003759</v>
+        <v>2016003348</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>33.18591972045987</v>
+        <v>-0.7118691109748083</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="B39">
-        <v>2014003759</v>
+        <v>2016003348</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>33.18591972045987</v>
+        <v>0.3734642223585252</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="B40">
-        <v>2014003759</v>
+        <v>2016003348</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40">
-        <v>0.6807475928148964</v>
+        <v>7.4</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>33.18591972045987</v>
+        <v>1.458797555691859</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="B41">
-        <v>2014003759</v>
+        <v>2016003348</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="D41">
-        <v>0.6304091404498575</v>
+        <v>7.4</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>33.28576270073939</v>
+        <v>2.544130889025192</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="B42">
-        <v>2014003759</v>
+        <v>2016003348</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
       <c r="D42">
-        <v>3.890670955574277</v>
+        <v>7.4</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>33.37822270800537</v>
+        <v>3.629464222358526</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="B43">
-        <v>2014003759</v>
+        <v>2016003348</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
       <c r="D43">
-        <v>3.973996433636435</v>
+        <v>7.4</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>33.94885444815626</v>
+        <v>4.71479755569186</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="B44">
-        <v>2014003759</v>
+        <v>2016003348</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
       <c r="D44">
-        <v>5.46458956992424</v>
+        <v>7.4</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44">
-        <v>34.53170725842294</v>
+        <v>5.800130889025193</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="B45">
-        <v>2014003759</v>
+        <v>2016003348</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
       <c r="D45">
-        <v>6.531634200126426</v>
+        <v>7.4</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>35.33318039534516</v>
+        <v>6.885464222358527</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="B46">
-        <v>2014003759</v>
+        <v>2016003348</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
       <c r="D46">
-        <v>5.421752492139301</v>
+        <v>7.4</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="F46">
-        <v>36.2911534113637</v>
+        <v>7.970797555691861</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="B47">
-        <v>2014003759</v>
+        <v>2016003348</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
       <c r="D47">
-        <v>5.653206280046618</v>
+        <v>7.4</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="F47">
-        <v>37.08634377687746</v>
+        <v>9.056130889025194</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="B48">
-        <v>2014003759</v>
+        <v>2016003348</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
       <c r="D48">
-        <v>6.784804300477762</v>
+        <v>7.4</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="F48">
-        <v>37.91548069795097</v>
+        <v>10.14146422235853</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="B49">
-        <v>2014003759</v>
+        <v>2016003348</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
       <c r="D49">
-        <v>5.886894342800716</v>
+        <v>7.4</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49">
-        <v>38.91058532868771</v>
+        <v>11.22679755569186</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="B50">
-        <v>2014003759</v>
+        <v>2016003348</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -3445,907 +3445,407 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>39.77399649896515</v>
+        <v>12.31213088902519</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="B51">
-        <v>2014003759</v>
+        <v>2016003348</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
       <c r="D51">
-        <v>6.973704335500432</v>
+        <v>7.4</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
       <c r="F51">
-        <v>40.85932983229848</v>
+        <v>13.39746422235853</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="B52">
-        <v>2014003759</v>
+        <v>2016003348</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
       <c r="D52">
-        <v>4.921837183160116</v>
+        <v>6.645863539778624</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="F52">
-        <v>41.88213980150521</v>
+        <v>14.48279755569186</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="B53">
-        <v>2014003759</v>
+        <v>2016003348</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
       <c r="D53">
-        <v>5.99909471149501</v>
+        <v>6.306590996232226</v>
       </c>
       <c r="E53">
         <v>0</v>
       </c>
       <c r="F53">
-        <v>42.60400925503536</v>
+        <v>15.45752420819272</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="B54">
-        <v>2014003759</v>
+        <v>2016003348</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
       <c r="D54">
-        <v>7.4</v>
+        <v>5.880749503636777</v>
       </c>
       <c r="E54">
         <v>0</v>
       </c>
       <c r="F54">
-        <v>43.48387647938797</v>
+        <v>16.38249088764012</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="B55">
-        <v>2014003759</v>
+        <v>2016003348</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
       <c r="D55">
-        <v>7.4</v>
+        <v>6.059450905764875</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="F55">
-        <v>44.5692098127213</v>
+        <v>17.24500081484018</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="B56">
-        <v>2014003759</v>
+        <v>2016003348</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
       <c r="D56">
-        <v>7.4</v>
+        <v>5.178467491071885</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="F56">
-        <v>45.65454314605463</v>
+        <v>18.13372028101903</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="B57">
-        <v>2014003759</v>
+        <v>2016003348</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
       <c r="D57">
-        <v>7.4</v>
+        <v>4.131448286000936</v>
       </c>
       <c r="E57">
         <v>0</v>
       </c>
       <c r="F57">
-        <v>46.73987647938796</v>
+        <v>18.89322884637624</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="B58">
-        <v>2014003759</v>
+        <v>2016003348</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
       <c r="D58">
-        <v>7.4</v>
+        <v>5.01625912159817</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
       <c r="F58">
-        <v>47.82520981272129</v>
+        <v>19.49917459498971</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="B59">
-        <v>2014003759</v>
+        <v>2016003348</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
       <c r="D59">
-        <v>6.841291933598328</v>
+        <v>5.812478184860751</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
       <c r="F59">
-        <v>48.91054314605462</v>
+        <v>20.23489259949077</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="B60">
-        <v>2014003759</v>
+        <v>2016003348</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
       <c r="D60">
-        <v>6.225613477661454</v>
+        <v>4.504750920494622</v>
       </c>
       <c r="E60">
         <v>0</v>
       </c>
       <c r="F60">
-        <v>49.91393262964904</v>
+        <v>21.08738939993702</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="B61">
-        <v>2014003759</v>
+        <v>2016003348</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
       <c r="D61">
-        <v>5.665342679340128</v>
+        <v>3.491244218094778</v>
       </c>
       <c r="E61">
         <v>0</v>
       </c>
       <c r="F61">
-        <v>50.82702260637272</v>
+        <v>21.74808620160956</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="B62">
-        <v>2014003759</v>
+        <v>2016003348</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
       <c r="D62">
-        <v>5.155493155737823</v>
+        <v>2.705762517285173</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
       <c r="F62">
-        <v>51.65793953267593</v>
+        <v>22.2601353535968</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="B63">
-        <v>2014003759</v>
+        <v>2016003348</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
       <c r="D63">
-        <v>4.691527270854401</v>
+        <v>1.014130281886276</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
       <c r="F63">
-        <v>52.41407852885081</v>
+        <v>22.65698052279862</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="B64">
-        <v>2014003759</v>
+        <v>2016003348</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
       <c r="D64">
-        <v>4.269315750846054</v>
+        <v>1.868838045608676</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
       <c r="F64">
-        <v>53.10216919524279</v>
+        <v>22.80571963080861</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="B65">
-        <v>2014003759</v>
+        <v>2016003348</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
       <c r="D65">
-        <v>3.885100933688655</v>
+        <v>1.448375312295944</v>
       </c>
       <c r="E65">
         <v>0</v>
       </c>
       <c r="F65">
-        <v>53.72833550536688</v>
+        <v>23.07981587749789</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="B66">
-        <v>2014003759</v>
+        <v>2016003348</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
       <c r="D66">
-        <v>3.535463326168198</v>
+        <v>1.122510883271922</v>
       </c>
       <c r="E66">
         <v>0</v>
       </c>
       <c r="F66">
-        <v>54.29815030897454</v>
+        <v>23.29224425663462</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="B67">
-        <v>2014003759</v>
+        <v>2016003348</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
       <c r="D67">
-        <v>3.21729117055726</v>
+        <v>0.8699614474003496</v>
       </c>
       <c r="E67">
         <v>0</v>
       </c>
       <c r="F67">
-        <v>54.81668493014588</v>
+        <v>23.45687918618118</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="B68">
-        <v>2014003759</v>
+        <v>2016003348</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
       <c r="D68">
-        <v>2.927752750122373</v>
+        <v>0.674232144419729</v>
       </c>
       <c r="E68">
         <v>0</v>
       </c>
       <c r="F68">
-        <v>55.2885543018276</v>
+        <v>23.58447353179989</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="B69">
-        <v>2014003759</v>
+        <v>2016003348</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
       <c r="D69">
-        <v>2.66427118698256</v>
+        <v>0.522539229671896</v>
       </c>
       <c r="E69">
         <v>0</v>
       </c>
       <c r="F69">
-        <v>55.71795803851222</v>
+        <v>23.68336091298145</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="B70">
-        <v>2014003759</v>
+        <v>2016003348</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
       <c r="D70">
-        <v>2.424501508021386</v>
+        <v>0</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
       <c r="F70">
-        <v>56.10871781260299</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71">
-        <v>93</v>
-      </c>
-      <c r="B71">
-        <v>2014003759</v>
-      </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-      <c r="D71">
-        <v>2.206309774740085</v>
-      </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-      <c r="F71">
-        <v>56.46431136711279</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72">
-        <v>94</v>
-      </c>
-      <c r="B72">
-        <v>2014003759</v>
-      </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-      <c r="D72">
-        <v>2.007754091308527</v>
-      </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-      <c r="F72">
-        <v>56.787903467408</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73">
-        <v>95</v>
-      </c>
-      <c r="B73">
-        <v>2014003759</v>
-      </c>
-      <c r="C73">
-        <v>1</v>
-      </c>
-      <c r="D73">
-        <v>1.827067321786679</v>
-      </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="F73">
-        <v>57.08237406746658</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74">
-        <v>96</v>
-      </c>
-      <c r="B74">
-        <v>2014003759</v>
-      </c>
-      <c r="C74">
-        <v>1</v>
-      </c>
-      <c r="D74">
-        <v>1.662641362700512</v>
-      </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74">
-        <v>57.35034394132863</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75">
-        <v>97</v>
-      </c>
-      <c r="B75">
-        <v>2014003759</v>
-      </c>
-      <c r="C75">
-        <v>1</v>
-      </c>
-      <c r="D75">
-        <v>1.513012830999216</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="F75">
-        <v>57.59419800785804</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76">
-        <v>98</v>
-      </c>
-      <c r="B76">
-        <v>2014003759</v>
-      </c>
-      <c r="C76">
-        <v>1</v>
-      </c>
-      <c r="D76">
-        <v>1.376850040017089</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-      <c r="F76">
-        <v>57.81610655640459</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77">
-        <v>99</v>
-      </c>
-      <c r="B77">
-        <v>2014003759</v>
-      </c>
-      <c r="C77">
-        <v>1</v>
-      </c>
-      <c r="D77">
-        <v>1.252941147526883</v>
-      </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-      <c r="F77">
-        <v>58.01804456227377</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78">
-        <v>100</v>
-      </c>
-      <c r="B78">
-        <v>2014003759</v>
-      </c>
-      <c r="C78">
-        <v>1</v>
-      </c>
-      <c r="D78">
-        <v>1.140183370402852</v>
-      </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-      <c r="F78">
-        <v>58.20180926391104</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79">
-        <v>101</v>
-      </c>
-      <c r="B79">
-        <v>2014003759</v>
-      </c>
-      <c r="C79">
-        <v>1</v>
-      </c>
-      <c r="D79">
-        <v>1.014130281886276</v>
-      </c>
-      <c r="E79">
-        <v>0</v>
-      </c>
-      <c r="F79">
-        <v>58.36903615823679</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80">
-        <v>102</v>
-      </c>
-      <c r="B80">
-        <v>2014003759</v>
-      </c>
-      <c r="C80">
-        <v>1</v>
-      </c>
-      <c r="D80">
-        <v>0.9463070505616855</v>
-      </c>
-      <c r="E80">
-        <v>0</v>
-      </c>
-      <c r="F80">
-        <v>58.51777526624677</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81">
-        <v>103</v>
-      </c>
-      <c r="B81">
-        <v>2014003759</v>
-      </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-      <c r="D81">
-        <v>0.8611446471170012</v>
-      </c>
-      <c r="E81">
-        <v>0</v>
-      </c>
-      <c r="F81">
-        <v>58.65656696699582</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82">
-        <v>104</v>
-      </c>
-      <c r="B82">
-        <v>2014003759</v>
-      </c>
-      <c r="C82">
-        <v>1</v>
-      </c>
-      <c r="D82">
-        <v>0.7836463892117251</v>
-      </c>
-      <c r="E82">
-        <v>0</v>
-      </c>
-      <c r="F82">
-        <v>58.78286818190631</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83">
-        <v>105</v>
-      </c>
-      <c r="B83">
-        <v>2014003759</v>
-      </c>
-      <c r="C83">
-        <v>1</v>
-      </c>
-      <c r="D83">
-        <v>0.7131225461140644</v>
-      </c>
-      <c r="E83">
-        <v>0</v>
-      </c>
-      <c r="F83">
-        <v>58.89780298565736</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84">
-        <v>106</v>
-      </c>
-      <c r="B84">
-        <v>2014003759</v>
-      </c>
-      <c r="C84">
-        <v>1</v>
-      </c>
-      <c r="D84">
-        <v>0.648945459045315</v>
-      </c>
-      <c r="E84">
-        <v>0</v>
-      </c>
-      <c r="F84">
-        <v>59.00239429242075</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85">
-        <v>107</v>
-      </c>
-      <c r="B85">
-        <v>2014003759</v>
-      </c>
-      <c r="C85">
-        <v>1</v>
-      </c>
-      <c r="D85">
-        <v>0.5905439550472096</v>
-      </c>
-      <c r="E85">
-        <v>0</v>
-      </c>
-      <c r="F85">
-        <v>59.0975729597474</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86">
-        <v>108</v>
-      </c>
-      <c r="B86">
-        <v>2014003759</v>
-      </c>
-      <c r="C86">
-        <v>1</v>
-      </c>
-      <c r="D86">
-        <v>0.5373982635703243</v>
-      </c>
-      <c r="E86">
-        <v>0</v>
-      </c>
-      <c r="F86">
-        <v>59.18418607315432</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87">
-        <v>109</v>
-      </c>
-      <c r="B87">
-        <v>2014003759</v>
-      </c>
-      <c r="C87">
-        <v>1</v>
-      </c>
-      <c r="D87">
-        <v>0.4890353905414457</v>
-      </c>
-      <c r="E87">
-        <v>0</v>
-      </c>
-      <c r="F87">
-        <v>59.26300448514463</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88">
-        <v>110</v>
-      </c>
-      <c r="B88">
-        <v>2014003759</v>
-      </c>
-      <c r="C88">
-        <v>1</v>
-      </c>
-      <c r="D88">
-        <v>0.4450249087392635</v>
-      </c>
-      <c r="E88">
-        <v>0</v>
-      </c>
-      <c r="F88">
-        <v>59.33472967575737</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89">
-        <v>111</v>
-      </c>
-      <c r="B89">
-        <v>2014003759</v>
-      </c>
-      <c r="C89">
-        <v>1</v>
-      </c>
-      <c r="D89">
-        <v>0</v>
-      </c>
-      <c r="E89">
-        <v>0</v>
-      </c>
-      <c r="F89">
-        <v>59.3999999957058</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90">
-        <v>112</v>
-      </c>
-      <c r="B90">
-        <v>2014003759</v>
-      </c>
-      <c r="C90">
-        <v>1</v>
-      </c>
-      <c r="D90">
-        <v>0</v>
-      </c>
-      <c r="E90">
-        <v>0</v>
-      </c>
-      <c r="F90">
-        <v>59.3999999957058</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91">
-        <v>113</v>
-      </c>
-      <c r="B91">
-        <v>2014003759</v>
-      </c>
-      <c r="C91">
-        <v>1</v>
-      </c>
-      <c r="D91">
-        <v>0</v>
-      </c>
-      <c r="E91">
-        <v>0</v>
-      </c>
-      <c r="F91">
-        <v>59.3999999957058</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92">
-        <v>114</v>
-      </c>
-      <c r="B92">
-        <v>2014003759</v>
-      </c>
-      <c r="C92">
-        <v>1</v>
-      </c>
-      <c r="D92">
-        <v>0</v>
-      </c>
-      <c r="E92">
-        <v>0</v>
-      </c>
-      <c r="F92">
-        <v>59.3999999957058</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93">
-        <v>115</v>
-      </c>
-      <c r="B93">
-        <v>2014003759</v>
-      </c>
-      <c r="C93">
-        <v>1</v>
-      </c>
-      <c r="D93">
-        <v>0</v>
-      </c>
-      <c r="E93">
-        <v>0</v>
-      </c>
-      <c r="F93">
-        <v>59.3999999957058</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94">
-        <v>116</v>
-      </c>
-      <c r="B94">
-        <v>2014003759</v>
-      </c>
-      <c r="C94">
-        <v>1</v>
-      </c>
-      <c r="D94">
-        <v>0</v>
-      </c>
-      <c r="E94">
-        <v>0</v>
-      </c>
-      <c r="F94">
-        <v>59.3999999957058</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95">
-        <v>117</v>
-      </c>
-      <c r="B95">
-        <v>2014003759</v>
-      </c>
-      <c r="C95">
-        <v>1</v>
-      </c>
-      <c r="D95">
-        <v>0</v>
-      </c>
-      <c r="E95">
-        <v>0</v>
-      </c>
-      <c r="F95">
-        <v>59.3999999957058</v>
+        <v>23.76</v>
       </c>
     </row>
   </sheetData>
